--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori4/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori4/17/correct_predictions_17.xlsx
@@ -836,17 +836,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,31 +887,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1466,22 +1466,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori4/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori4/17/correct_predictions_17.xlsx
@@ -836,17 +836,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,31 +887,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1466,22 +1466,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
